--- a/Ideas.xlsx
+++ b/Ideas.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chank\Desktop\Godot\new-dawn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4177ECD4-D5E4-4C19-AF0D-8051A97E873C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E0E66-0101-4A16-B484-4BABFF6982F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Food</t>
   </si>
@@ -39,10 +50,22 @@
     <t>&gt;&gt;&gt;&gt;&gt;&gt;</t>
   </si>
   <si>
-    <t>-small amount food for 10 turns</t>
-  </si>
-  <si>
-    <t>-big amount food 1 turn</t>
+    <t xml:space="preserve">+x food for y turns -&gt; -X food at last turn </t>
+  </si>
+  <si>
+    <t>-x food for y turns</t>
+  </si>
+  <si>
+    <t>-X food 1 turn</t>
+  </si>
+  <si>
+    <t>-x~X food for y turns</t>
+  </si>
+  <si>
+    <t>-x% food 1 turn</t>
+  </si>
+  <si>
+    <t>+x food</t>
   </si>
 </sst>
 </file>
@@ -369,21 +392,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="22.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="42.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.21875" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -397,13 +421,31 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Ideas.xlsx
+++ b/Ideas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chank\Desktop\Godot\new-dawn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E0E66-0101-4A16-B484-4BABFF6982F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3FD5C1-4B5A-4B3D-AC37-04D20860F38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Food</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>+x food</t>
+  </si>
+  <si>
+    <t>check chatgpt HIAN log for more info</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,6 +451,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ideas.xlsx
+++ b/Ideas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chank\Desktop\Godot\new-dawn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3FD5C1-4B5A-4B3D-AC37-04D20860F38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3F30CE-FC46-4338-9C75-74F12EC28E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Food</t>
   </si>
@@ -69,13 +69,85 @@
   </si>
   <si>
     <t>check chatgpt HIAN log for more info</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Eff</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>Fisherman</t>
+  </si>
+  <si>
+    <t>Shepherd</t>
+  </si>
+  <si>
+    <t>steady food provider.</t>
+  </si>
+  <si>
+    <t>provide higher food than farmer but 50% of chance</t>
+  </si>
+  <si>
+    <t>sea meta food provider</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +155,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,11 +194,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,68 +482,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>